--- a/CK_2017-12-18merge2.xlsx
+++ b/CK_2017-12-18merge2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="460" windowWidth="12980" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="9660" yWindow="460" windowWidth="15940" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +121,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -461,7 +468,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -548,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
